--- a/curso-completo/excel_365_do_zero_ao_avancado/9.intermediario_graficos/157.design_do_grafico/129+-+Design+do+Gráfico.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/9.intermediario_graficos/157.design_do_grafico/129+-+Design+do+Gráfico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Intermediário\Capítulo 08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\9.intermediario_graficos\157.design_do_grafico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9588A7-E534-4384-84B2-FC8498C7B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C0F86-7437-421F-A8EE-F22A0AC3982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{DB1B5663-54AF-489E-BEA9-77CE35020F47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{DB1B5663-54AF-489E-BEA9-77CE35020F47}"/>
   </bookViews>
   <sheets>
     <sheet name="Preços" sheetId="2" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>1º Semana</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
+  </si>
+  <si>
+    <t>Coolors - O gerador de paletas de cores super rápido!</t>
+  </si>
+  <si>
+    <t>Aba: Tools / Explorer</t>
   </si>
 </sst>
 </file>
@@ -704,6 +710,9 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,9 +722,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2784,9 +2790,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2824,7 +2830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2930,7 +2936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3072,7 +3078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3086,9 +3092,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3127,79 +3133,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235B45F4-61F8-4E55-8821-D875F74BF387}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
-    <row r="2" spans="1:11" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+    <row r="2" spans="1:11" s="35" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:11" s="36" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="37"/>
       <c r="E3" s="38"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3232,7 +3238,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3257,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3276,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
@@ -3288,6 +3294,16 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3295,9 +3311,12 @@
     <mergeCell ref="B1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1" display="https://coolors.co/" xr:uid="{419AF149-3B9F-4A57-81B8-54C52E1D75DF}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3309,50 +3328,50 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:16" s="35" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:16" s="40" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="40" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H3" s="41"/>
       <c r="J3" s="42"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3360,18 +3379,18 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3379,17 +3398,17 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="25" t="s">
         <v>4</v>
       </c>
@@ -3403,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3427,7 +3446,7 @@
         <v>15171.517985898996</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3451,7 +3470,7 @@
         <v>20014.146494579829</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3475,7 +3494,7 @@
         <v>32403.372263250745</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3518,56 +3537,56 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="40"/>
-    <col min="2" max="2" width="16.453125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="40"/>
+    <col min="1" max="1" width="8.77734375" style="40"/>
+    <col min="2" max="2" width="16.44140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="49" t="s">
+    <row r="2" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48" t="s">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
